--- a/Makslip-2081-1st/Markslip-(4 & 5).xlsx
+++ b/Makslip-2081-1st/Markslip-(4 & 5).xlsx
@@ -377,7 +377,7 @@
     <t>FM=</t>
   </si>
   <si>
-    <t>https://bit.ly/3SrTnrm</t>
+    <t>https://bit.ly/4dncgUa</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:BK39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
